--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Abríl.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Abríl.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>300</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -362,7 +362,7 @@
         </is>
       </c>
       <c r="C11" s="65">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="C12" s="65">
-        <v>234</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
@@ -392,7 +392,7 @@
         </is>
       </c>
       <c r="C13" s="65">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="C14" s="65">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
